--- a/data/pca/factorExposure/factorExposure_2012-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-29.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01665680374959862</v>
+        <v>0.02206288409784488</v>
       </c>
       <c r="C2">
-        <v>0.02967827934516293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02439767453200537</v>
+      </c>
+      <c r="D2">
+        <v>0.004941609424587164</v>
+      </c>
+      <c r="E2">
+        <v>0.01947576873518704</v>
+      </c>
+      <c r="F2">
+        <v>0.003206505257147253</v>
+      </c>
+      <c r="G2">
+        <v>0.01341539370990671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06713046272725512</v>
+        <v>0.07570113629361971</v>
       </c>
       <c r="C4">
-        <v>0.06220340956874958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04209066938930971</v>
+      </c>
+      <c r="D4">
+        <v>0.07063783963580451</v>
+      </c>
+      <c r="E4">
+        <v>-0.0007544600133183737</v>
+      </c>
+      <c r="F4">
+        <v>0.02890825410733202</v>
+      </c>
+      <c r="G4">
+        <v>-0.01948537638320272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09547946890368254</v>
+        <v>0.1130558073623413</v>
       </c>
       <c r="C6">
-        <v>0.07117875336528054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04809947068258574</v>
+      </c>
+      <c r="D6">
+        <v>0.01007989922109864</v>
+      </c>
+      <c r="E6">
+        <v>0.003198102363560839</v>
+      </c>
+      <c r="F6">
+        <v>0.04573191656948908</v>
+      </c>
+      <c r="G6">
+        <v>0.01405508274811352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04363553721605493</v>
+        <v>0.05346951015334681</v>
       </c>
       <c r="C7">
-        <v>0.03575798891464652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02675021712800921</v>
+      </c>
+      <c r="D7">
+        <v>0.03449523208836702</v>
+      </c>
+      <c r="E7">
+        <v>0.02159877978399197</v>
+      </c>
+      <c r="F7">
+        <v>0.03161253289064857</v>
+      </c>
+      <c r="G7">
+        <v>-0.035776466151455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03137583074260675</v>
+        <v>0.03404858193011778</v>
       </c>
       <c r="C8">
-        <v>0.02900610564567841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01822744585339101</v>
+      </c>
+      <c r="D8">
+        <v>0.03976207048414076</v>
+      </c>
+      <c r="E8">
+        <v>0.005340946424907005</v>
+      </c>
+      <c r="F8">
+        <v>0.04846207287699515</v>
+      </c>
+      <c r="G8">
+        <v>0.02162958472473958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06130592993674197</v>
+        <v>0.07105186047694975</v>
       </c>
       <c r="C9">
-        <v>0.04849590101683211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03121570232601344</v>
+      </c>
+      <c r="D9">
+        <v>0.06941390397099746</v>
+      </c>
+      <c r="E9">
+        <v>0.01402690160477214</v>
+      </c>
+      <c r="F9">
+        <v>0.04037112184731094</v>
+      </c>
+      <c r="G9">
+        <v>-0.006352345993571448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02793478435341025</v>
+        <v>0.04025479438455764</v>
       </c>
       <c r="C10">
-        <v>0.03845303181677615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03875635524156516</v>
+      </c>
+      <c r="D10">
+        <v>-0.1866068791838733</v>
+      </c>
+      <c r="E10">
+        <v>0.0500447213037581</v>
+      </c>
+      <c r="F10">
+        <v>0.03550373733606584</v>
+      </c>
+      <c r="G10">
+        <v>-0.0339004555517242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0679834661659612</v>
+        <v>0.07553195410995704</v>
       </c>
       <c r="C11">
-        <v>0.05513122924384901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03236348236040335</v>
+      </c>
+      <c r="D11">
+        <v>0.06787084370102062</v>
+      </c>
+      <c r="E11">
+        <v>-0.008385417203752972</v>
+      </c>
+      <c r="F11">
+        <v>0.03517698318809783</v>
+      </c>
+      <c r="G11">
+        <v>-0.03266879008374799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05153505044771454</v>
+        <v>0.06046507886334526</v>
       </c>
       <c r="C12">
-        <v>0.05344376826061795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03678783170860311</v>
+      </c>
+      <c r="D12">
+        <v>0.05102725349632525</v>
+      </c>
+      <c r="E12">
+        <v>0.009697827293593137</v>
+      </c>
+      <c r="F12">
+        <v>0.02662217494772704</v>
+      </c>
+      <c r="G12">
+        <v>-0.02959998142872818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0595101399665775</v>
+        <v>0.06554114538142369</v>
       </c>
       <c r="C13">
-        <v>0.05394382954531234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03271379291946126</v>
+      </c>
+      <c r="D13">
+        <v>0.0525459262118082</v>
+      </c>
+      <c r="E13">
+        <v>0.004996559054807891</v>
+      </c>
+      <c r="F13">
+        <v>0.01873009653415777</v>
+      </c>
+      <c r="G13">
+        <v>-0.01811391015988996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03187223945903414</v>
+        <v>0.03743393599588955</v>
       </c>
       <c r="C14">
-        <v>0.02846024701821362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02158198070969286</v>
+      </c>
+      <c r="D14">
+        <v>0.01071083763427194</v>
+      </c>
+      <c r="E14">
+        <v>0.01148749341099815</v>
+      </c>
+      <c r="F14">
+        <v>0.01736339250910562</v>
+      </c>
+      <c r="G14">
+        <v>0.009757386876678979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03865838903758908</v>
+        <v>0.04026294658361495</v>
       </c>
       <c r="C15">
-        <v>0.01394902647938566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.004036760802930191</v>
+      </c>
+      <c r="D15">
+        <v>0.01817426640568075</v>
+      </c>
+      <c r="E15">
+        <v>0.0375039461229282</v>
+      </c>
+      <c r="F15">
+        <v>0.002919484318766461</v>
+      </c>
+      <c r="G15">
+        <v>0.0206251165305174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05651666437720636</v>
+        <v>0.06180667468985893</v>
       </c>
       <c r="C16">
-        <v>0.04586437520244589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02841054582520574</v>
+      </c>
+      <c r="D16">
+        <v>0.06036130551846794</v>
+      </c>
+      <c r="E16">
+        <v>-0.000650123988292878</v>
+      </c>
+      <c r="F16">
+        <v>0.03091470411296492</v>
+      </c>
+      <c r="G16">
+        <v>-0.01879380043146056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0618757802116862</v>
+        <v>0.06189863746079192</v>
       </c>
       <c r="C20">
-        <v>0.03933133638358237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01892151869806267</v>
+      </c>
+      <c r="D20">
+        <v>0.04863545152914128</v>
+      </c>
+      <c r="E20">
+        <v>0.01741792649460885</v>
+      </c>
+      <c r="F20">
+        <v>0.02721023199792671</v>
+      </c>
+      <c r="G20">
+        <v>-0.02552340848873082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02732571133496231</v>
+        <v>0.02248981603067464</v>
       </c>
       <c r="C21">
-        <v>-4.746703383663805e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01073564114092522</v>
+      </c>
+      <c r="D21">
+        <v>0.03104521984241727</v>
+      </c>
+      <c r="E21">
+        <v>0.09515661174678372</v>
+      </c>
+      <c r="F21">
+        <v>-0.003890262625537994</v>
+      </c>
+      <c r="G21">
+        <v>0.0185524944651202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06833417599631206</v>
+        <v>0.06575635141979656</v>
       </c>
       <c r="C22">
-        <v>0.07544053870130103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04409304415707369</v>
+      </c>
+      <c r="D22">
+        <v>0.1043319787219142</v>
+      </c>
+      <c r="E22">
+        <v>0.6127528337505685</v>
+      </c>
+      <c r="F22">
+        <v>-0.1351873499070766</v>
+      </c>
+      <c r="G22">
+        <v>0.009097674151878413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.06910288511932818</v>
+        <v>0.06647984296631466</v>
       </c>
       <c r="C23">
-        <v>0.07500372400776402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04354876871043699</v>
+      </c>
+      <c r="D23">
+        <v>0.1054590772173634</v>
+      </c>
+      <c r="E23">
+        <v>0.6119800325354113</v>
+      </c>
+      <c r="F23">
+        <v>-0.1349155497045612</v>
+      </c>
+      <c r="G23">
+        <v>0.01082703069111747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06407716571847427</v>
+        <v>0.07334172484917127</v>
       </c>
       <c r="C24">
-        <v>0.0550397588504964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03465266901434576</v>
+      </c>
+      <c r="D24">
+        <v>0.06547822293934295</v>
+      </c>
+      <c r="E24">
+        <v>0.007004490368467559</v>
+      </c>
+      <c r="F24">
+        <v>0.04487425210016236</v>
+      </c>
+      <c r="G24">
+        <v>-0.0151713964841889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06345973662509216</v>
+        <v>0.0709066825305614</v>
       </c>
       <c r="C25">
-        <v>0.05993860603149245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03938403433759365</v>
+      </c>
+      <c r="D25">
+        <v>0.06370687957222584</v>
+      </c>
+      <c r="E25">
+        <v>0.007949513367110774</v>
+      </c>
+      <c r="F25">
+        <v>0.03849516396195421</v>
+      </c>
+      <c r="G25">
+        <v>-0.01096160380037952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03793808777073202</v>
+        <v>0.03998141156803942</v>
       </c>
       <c r="C26">
-        <v>0.01473958880189213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005776875863743208</v>
+      </c>
+      <c r="D26">
+        <v>0.0211436930326141</v>
+      </c>
+      <c r="E26">
+        <v>0.03831537937381206</v>
+      </c>
+      <c r="F26">
+        <v>0.02255892642043059</v>
+      </c>
+      <c r="G26">
+        <v>-0.01490248331763549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04894447254108635</v>
+        <v>0.07304318181013966</v>
       </c>
       <c r="C28">
-        <v>0.07423080251952249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07553003034918628</v>
+      </c>
+      <c r="D28">
+        <v>-0.3253170080858261</v>
+      </c>
+      <c r="E28">
+        <v>0.04071630149279266</v>
+      </c>
+      <c r="F28">
+        <v>0.05350109554906921</v>
+      </c>
+      <c r="G28">
+        <v>0.02538806249402398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03439302832739073</v>
+        <v>0.04176183533396066</v>
       </c>
       <c r="C29">
-        <v>0.03287091968150283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02561264183032996</v>
+      </c>
+      <c r="D29">
+        <v>0.01057509154168913</v>
+      </c>
+      <c r="E29">
+        <v>0.03751267478932747</v>
+      </c>
+      <c r="F29">
+        <v>0.01298927427347409</v>
+      </c>
+      <c r="G29">
+        <v>-0.004288447756986934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1132462521088982</v>
+        <v>0.1276622793282878</v>
       </c>
       <c r="C30">
-        <v>0.1006000336322651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06631646018968519</v>
+      </c>
+      <c r="D30">
+        <v>0.1014027672972439</v>
+      </c>
+      <c r="E30">
+        <v>0.03258338911468285</v>
+      </c>
+      <c r="F30">
+        <v>0.01903596119548829</v>
+      </c>
+      <c r="G30">
+        <v>0.002598699788754939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0373354491320897</v>
+        <v>0.04276081632224849</v>
       </c>
       <c r="C31">
-        <v>0.02715038979186467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01646579595430862</v>
+      </c>
+      <c r="D31">
+        <v>0.02981913934865587</v>
+      </c>
+      <c r="E31">
+        <v>0.02106612385296979</v>
+      </c>
+      <c r="F31">
+        <v>0.01446176092432752</v>
+      </c>
+      <c r="G31">
+        <v>-0.01897940437058385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03120656318674091</v>
+        <v>0.03231788150175374</v>
       </c>
       <c r="C32">
-        <v>0.0267258552711545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01721777070720966</v>
+      </c>
+      <c r="D32">
+        <v>0.01741848841755736</v>
+      </c>
+      <c r="E32">
+        <v>0.05956912956346834</v>
+      </c>
+      <c r="F32">
+        <v>-0.01153698648430472</v>
+      </c>
+      <c r="G32">
+        <v>0.009286119638206478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07425507170677008</v>
+        <v>0.08769073279559174</v>
       </c>
       <c r="C33">
-        <v>0.05418435437124124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03499943704613745</v>
+      </c>
+      <c r="D33">
+        <v>0.06473102914486342</v>
+      </c>
+      <c r="E33">
+        <v>0.01148790769116494</v>
+      </c>
+      <c r="F33">
+        <v>0.00668227178243323</v>
+      </c>
+      <c r="G33">
+        <v>-0.02628681156914202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04972548172855332</v>
+        <v>0.05593515838768461</v>
       </c>
       <c r="C34">
-        <v>0.03439079453656217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0194875667601141</v>
+      </c>
+      <c r="D34">
+        <v>0.05832077935427821</v>
+      </c>
+      <c r="E34">
+        <v>0.003691350243672527</v>
+      </c>
+      <c r="F34">
+        <v>0.02632912977783253</v>
+      </c>
+      <c r="G34">
+        <v>-0.01096479919285935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03611496811117246</v>
+        <v>0.03896077317313476</v>
       </c>
       <c r="C35">
-        <v>0.014613431611414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.006350390761461168</v>
+      </c>
+      <c r="D35">
+        <v>0.010879015911343</v>
+      </c>
+      <c r="E35">
+        <v>0.03131483807980718</v>
+      </c>
+      <c r="F35">
+        <v>-0.003734795138334056</v>
+      </c>
+      <c r="G35">
+        <v>-0.008576997464653114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01844697549352496</v>
+        <v>0.02293923547262686</v>
       </c>
       <c r="C36">
-        <v>0.01688031340467618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01127734856122508</v>
+      </c>
+      <c r="D36">
+        <v>0.01949896403800438</v>
+      </c>
+      <c r="E36">
+        <v>0.03462552825365976</v>
+      </c>
+      <c r="F36">
+        <v>0.02094085849098368</v>
+      </c>
+      <c r="G36">
+        <v>-0.01727883120475125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0367910180193051</v>
+        <v>0.0400494194120295</v>
       </c>
       <c r="C38">
-        <v>0.01358210095856044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.004072559556385789</v>
+      </c>
+      <c r="D38">
+        <v>0.01128523733680853</v>
+      </c>
+      <c r="E38">
+        <v>0.06010088247271612</v>
+      </c>
+      <c r="F38">
+        <v>-0.01862866670910389</v>
+      </c>
+      <c r="G38">
+        <v>0.02202422953337618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08549002683935045</v>
+        <v>0.09940819407908508</v>
       </c>
       <c r="C39">
-        <v>0.08375266968128656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05632365218761515</v>
+      </c>
+      <c r="D39">
+        <v>0.08586574534435829</v>
+      </c>
+      <c r="E39">
+        <v>-0.01833338201709298</v>
+      </c>
+      <c r="F39">
+        <v>0.02257553469242842</v>
+      </c>
+      <c r="G39">
+        <v>0.007571233052916209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06499120188840846</v>
+        <v>0.07184869157999411</v>
       </c>
       <c r="C40">
-        <v>0.05749742033018978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03768144201787458</v>
+      </c>
+      <c r="D40">
+        <v>0.01167474130498427</v>
+      </c>
+      <c r="E40">
+        <v>0.02286068097953096</v>
+      </c>
+      <c r="F40">
+        <v>-0.04454438363931499</v>
+      </c>
+      <c r="G40">
+        <v>0.04792136358162177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03851350869907824</v>
+        <v>0.04278803006716519</v>
       </c>
       <c r="C41">
-        <v>0.01824327180730835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008887267753837471</v>
+      </c>
+      <c r="D41">
+        <v>0.04199521049418605</v>
+      </c>
+      <c r="E41">
+        <v>0.008734625663918111</v>
+      </c>
+      <c r="F41">
+        <v>-0.008193581637076727</v>
+      </c>
+      <c r="G41">
+        <v>0.002954175633291518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04038437410179867</v>
+        <v>0.04933748635161764</v>
       </c>
       <c r="C43">
-        <v>0.03837518021713936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02489111430122493</v>
+      </c>
+      <c r="D43">
+        <v>0.02850985493147327</v>
+      </c>
+      <c r="E43">
+        <v>0.01723907974459076</v>
+      </c>
+      <c r="F43">
+        <v>0.01264873546891135</v>
+      </c>
+      <c r="G43">
+        <v>-0.01395081460787549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0871566422433916</v>
+        <v>0.09118182767748274</v>
       </c>
       <c r="C44">
-        <v>0.09654590533365334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06440756611864872</v>
+      </c>
+      <c r="D44">
+        <v>0.06036737960909573</v>
+      </c>
+      <c r="E44">
+        <v>0.09780193907442727</v>
+      </c>
+      <c r="F44">
+        <v>0.06720213034127567</v>
+      </c>
+      <c r="G44">
+        <v>-0.002956705277005992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02642262139569702</v>
+        <v>0.02774364906985788</v>
       </c>
       <c r="C46">
-        <v>0.01973299110189552</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01184995114565505</v>
+      </c>
+      <c r="D46">
+        <v>0.033262378936521</v>
+      </c>
+      <c r="E46">
+        <v>0.01663840000033118</v>
+      </c>
+      <c r="F46">
+        <v>0.01977435932572762</v>
+      </c>
+      <c r="G46">
+        <v>0.008878881500873554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0298151158030739</v>
+        <v>0.03222946964480924</v>
       </c>
       <c r="C47">
-        <v>0.02223676653388436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01315800027371415</v>
+      </c>
+      <c r="D47">
+        <v>0.01784118382563479</v>
+      </c>
+      <c r="E47">
+        <v>0.05018983760764581</v>
+      </c>
+      <c r="F47">
+        <v>0.0133994381039371</v>
+      </c>
+      <c r="G47">
+        <v>-0.026664039601721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02710159163240095</v>
+        <v>0.03129789485495577</v>
       </c>
       <c r="C48">
-        <v>0.01994593792763969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01197139919952483</v>
+      </c>
+      <c r="D48">
+        <v>0.03025234358706368</v>
+      </c>
+      <c r="E48">
+        <v>0.04385179083917286</v>
+      </c>
+      <c r="F48">
+        <v>0.0193472381741442</v>
+      </c>
+      <c r="G48">
+        <v>-0.007308444460776758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1517477751887076</v>
+        <v>0.1756484071441703</v>
       </c>
       <c r="C49">
-        <v>0.09696164476250294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0590239295770531</v>
+      </c>
+      <c r="D49">
+        <v>0.007643268343090292</v>
+      </c>
+      <c r="E49">
+        <v>-0.1310388672946545</v>
+      </c>
+      <c r="F49">
+        <v>0.01145407649742718</v>
+      </c>
+      <c r="G49">
+        <v>-0.07612828102231818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03253639299795096</v>
+        <v>0.04028875164163828</v>
       </c>
       <c r="C50">
-        <v>0.02789934687550909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02251704772576047</v>
+      </c>
+      <c r="D50">
+        <v>0.03826382656252582</v>
+      </c>
+      <c r="E50">
+        <v>0.04284316720513291</v>
+      </c>
+      <c r="F50">
+        <v>0.02846012665847723</v>
+      </c>
+      <c r="G50">
+        <v>-0.02099142952257349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02358602644859609</v>
+        <v>0.02537640441132737</v>
       </c>
       <c r="C51">
-        <v>0.01856760494736313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01105033641208433</v>
+      </c>
+      <c r="D51">
+        <v>0.02599367292915441</v>
+      </c>
+      <c r="E51">
+        <v>0.01378407549994834</v>
+      </c>
+      <c r="F51">
+        <v>0.005386286176542074</v>
+      </c>
+      <c r="G51">
+        <v>0.008147252929263698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1384453845999457</v>
+        <v>0.1585927415211733</v>
       </c>
       <c r="C53">
-        <v>0.106031079160525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07133021505776843</v>
+      </c>
+      <c r="D53">
+        <v>0.02312739915905267</v>
+      </c>
+      <c r="E53">
+        <v>-0.03803241523500207</v>
+      </c>
+      <c r="F53">
+        <v>0.02384527778403956</v>
+      </c>
+      <c r="G53">
+        <v>-0.01682137430322123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0517596521317143</v>
+        <v>0.05641049471315552</v>
       </c>
       <c r="C54">
-        <v>0.02872429827888566</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01423801547889978</v>
+      </c>
+      <c r="D54">
+        <v>0.03705133088587202</v>
+      </c>
+      <c r="E54">
+        <v>0.04255381513664522</v>
+      </c>
+      <c r="F54">
+        <v>0.01535243611569492</v>
+      </c>
+      <c r="G54">
+        <v>-0.008398151653071576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09270899194513571</v>
+        <v>0.1006260844632982</v>
       </c>
       <c r="C55">
-        <v>0.06735536993989193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04467326557826354</v>
+      </c>
+      <c r="D55">
+        <v>0.03249551310942841</v>
+      </c>
+      <c r="E55">
+        <v>0.006653154094570551</v>
+      </c>
+      <c r="F55">
+        <v>0.02868835013703262</v>
+      </c>
+      <c r="G55">
+        <v>-0.004583273842526078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1340907477295418</v>
+        <v>0.1567333260021032</v>
       </c>
       <c r="C56">
-        <v>0.1140364770918877</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07940454960922068</v>
+      </c>
+      <c r="D56">
+        <v>0.01747447149451176</v>
+      </c>
+      <c r="E56">
+        <v>-0.03740562762727369</v>
+      </c>
+      <c r="F56">
+        <v>0.0545066243466844</v>
+      </c>
+      <c r="G56">
+        <v>-0.02990666116872472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1128529170794888</v>
+        <v>0.1042555744387378</v>
       </c>
       <c r="C58">
-        <v>0.03599622723551407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>4.595217586638935e-05</v>
+      </c>
+      <c r="D58">
+        <v>0.05892586521918078</v>
+      </c>
+      <c r="E58">
+        <v>0.1860530473571474</v>
+      </c>
+      <c r="F58">
+        <v>0.04229558993819948</v>
+      </c>
+      <c r="G58">
+        <v>-0.03958164656306214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1015803810060619</v>
+        <v>0.1446897049891185</v>
       </c>
       <c r="C59">
-        <v>0.09032337825720527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08713438730709473</v>
+      </c>
+      <c r="D59">
+        <v>-0.3509596509133724</v>
+      </c>
+      <c r="E59">
+        <v>0.04926189341496658</v>
+      </c>
+      <c r="F59">
+        <v>-0.02489494707976005</v>
+      </c>
+      <c r="G59">
+        <v>-0.01886462054943416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.17907807572574</v>
+        <v>0.2125155189169658</v>
       </c>
       <c r="C60">
-        <v>0.1235642518732229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08297890407420343</v>
+      </c>
+      <c r="D60">
+        <v>0.0130116116413833</v>
+      </c>
+      <c r="E60">
+        <v>-0.07165458652511032</v>
+      </c>
+      <c r="F60">
+        <v>0.03334633888911145</v>
+      </c>
+      <c r="G60">
+        <v>0.02403201909321932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07458708420285964</v>
+        <v>0.08429285227874932</v>
       </c>
       <c r="C61">
-        <v>0.06131586815461234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04008515410512407</v>
+      </c>
+      <c r="D61">
+        <v>0.06141232698375427</v>
+      </c>
+      <c r="E61">
+        <v>-0.01682053350891056</v>
+      </c>
+      <c r="F61">
+        <v>0.01071999045098222</v>
+      </c>
+      <c r="G61">
+        <v>-0.02927863643180672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1118812261443582</v>
+        <v>0.1359783895233862</v>
       </c>
       <c r="C62">
-        <v>0.08395278829205741</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.06044244626703392</v>
+      </c>
+      <c r="D62">
+        <v>0.02930305907199247</v>
+      </c>
+      <c r="E62">
+        <v>-0.05772527433913712</v>
+      </c>
+      <c r="F62">
+        <v>0.02525649589089645</v>
+      </c>
+      <c r="G62">
+        <v>0.02921110666830284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04793479554740018</v>
+        <v>0.05079621732205393</v>
       </c>
       <c r="C63">
-        <v>0.03007717227175158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01810226626055159</v>
+      </c>
+      <c r="D63">
+        <v>0.03100379581108342</v>
+      </c>
+      <c r="E63">
+        <v>0.04963997781581664</v>
+      </c>
+      <c r="F63">
+        <v>0.01785317305413435</v>
+      </c>
+      <c r="G63">
+        <v>0.02624234086945756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1044270212435214</v>
+        <v>0.1107656774034475</v>
       </c>
       <c r="C64">
-        <v>0.05106601588005463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02600126713561589</v>
+      </c>
+      <c r="D64">
+        <v>0.04684402753299697</v>
+      </c>
+      <c r="E64">
+        <v>0.02878461736085318</v>
+      </c>
+      <c r="F64">
+        <v>0.05500928634166991</v>
+      </c>
+      <c r="G64">
+        <v>0.01662637535252204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1051613253969641</v>
+        <v>0.1213871732270372</v>
       </c>
       <c r="C65">
-        <v>0.07067014517789083</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04657142930360068</v>
+      </c>
+      <c r="D65">
+        <v>0.01407199804162197</v>
+      </c>
+      <c r="E65">
+        <v>0.0002487295120838293</v>
+      </c>
+      <c r="F65">
+        <v>0.06016058999674879</v>
+      </c>
+      <c r="G65">
+        <v>0.03786886046141814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1329874249181978</v>
+        <v>0.1518961428986042</v>
       </c>
       <c r="C66">
-        <v>0.09501484733393573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05938396420600656</v>
+      </c>
+      <c r="D66">
+        <v>0.1197421108856248</v>
+      </c>
+      <c r="E66">
+        <v>-0.06047773864233025</v>
+      </c>
+      <c r="F66">
+        <v>0.04468557183615835</v>
+      </c>
+      <c r="G66">
+        <v>-0.007848216762685047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06861488722854994</v>
+        <v>0.07447730109015401</v>
       </c>
       <c r="C67">
-        <v>0.02758210588811604</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.01050583705549525</v>
+      </c>
+      <c r="D67">
+        <v>0.0244141525033629</v>
+      </c>
+      <c r="E67">
+        <v>0.02669665065709265</v>
+      </c>
+      <c r="F67">
+        <v>-0.001161824995062539</v>
+      </c>
+      <c r="G67">
+        <v>-0.001610368108234289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05059476634898328</v>
+        <v>0.06793976109756003</v>
       </c>
       <c r="C68">
-        <v>0.0498784689289813</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04933551762154511</v>
+      </c>
+      <c r="D68">
+        <v>-0.2658793010039447</v>
+      </c>
+      <c r="E68">
+        <v>0.04989440464173892</v>
+      </c>
+      <c r="F68">
+        <v>0.01300295355712798</v>
+      </c>
+      <c r="G68">
+        <v>-0.003831771423994282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04826455860618314</v>
+        <v>0.05099975512090889</v>
       </c>
       <c r="C69">
-        <v>0.03045418927285002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01362404093746153</v>
+      </c>
+      <c r="D69">
+        <v>0.03521437556226838</v>
+      </c>
+      <c r="E69">
+        <v>0.01630123421319283</v>
+      </c>
+      <c r="F69">
+        <v>0.002376806059785714</v>
+      </c>
+      <c r="G69">
+        <v>-0.009852188557653534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.004379906193641048</v>
+        <v>0.01387696161757767</v>
       </c>
       <c r="C70">
-        <v>-0.002430752722496402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0006931164346933213</v>
+      </c>
+      <c r="D70">
+        <v>-0.006395309953091232</v>
+      </c>
+      <c r="E70">
+        <v>-0.02432455661375455</v>
+      </c>
+      <c r="F70">
+        <v>0.01035086384102376</v>
+      </c>
+      <c r="G70">
+        <v>-0.00893646318481872</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05324780831623999</v>
+        <v>0.0708045850409257</v>
       </c>
       <c r="C71">
-        <v>0.04792374119867138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04760246041093252</v>
+      </c>
+      <c r="D71">
+        <v>-0.3001701371527665</v>
+      </c>
+      <c r="E71">
+        <v>0.04726018650669093</v>
+      </c>
+      <c r="F71">
+        <v>0.03347253621115754</v>
+      </c>
+      <c r="G71">
+        <v>-0.004839462033554433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1268384039452568</v>
+        <v>0.1501044151412952</v>
       </c>
       <c r="C72">
-        <v>0.0824823206288407</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.0541660008902124</v>
+      </c>
+      <c r="D72">
+        <v>0.01293650116454266</v>
+      </c>
+      <c r="E72">
+        <v>-0.09692351520984731</v>
+      </c>
+      <c r="F72">
+        <v>-0.1516862428401066</v>
+      </c>
+      <c r="G72">
+        <v>0.1239907841542676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2390074626838166</v>
+        <v>0.2669031212258577</v>
       </c>
       <c r="C73">
-        <v>0.1484654102108437</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0905274704188116</v>
+      </c>
+      <c r="D73">
+        <v>0.06100167202153058</v>
+      </c>
+      <c r="E73">
+        <v>-0.1853169033412354</v>
+      </c>
+      <c r="F73">
+        <v>0.05870349442906076</v>
+      </c>
+      <c r="G73">
+        <v>-0.1715666282704184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07457525046897859</v>
+        <v>0.08882816033657134</v>
       </c>
       <c r="C74">
-        <v>0.08491911369709977</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06427927674061569</v>
+      </c>
+      <c r="D74">
+        <v>0.03469429618323105</v>
+      </c>
+      <c r="E74">
+        <v>-0.003363794760216842</v>
+      </c>
+      <c r="F74">
+        <v>-0.002121702059497164</v>
+      </c>
+      <c r="G74">
+        <v>-0.03019003656542177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0934917030696345</v>
+        <v>0.106244092198846</v>
       </c>
       <c r="C75">
-        <v>0.07337420511892222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.043637085514057</v>
+      </c>
+      <c r="D75">
+        <v>0.01907015138727153</v>
+      </c>
+      <c r="E75">
+        <v>0.001366982054864046</v>
+      </c>
+      <c r="F75">
+        <v>0.06644537991829781</v>
+      </c>
+      <c r="G75">
+        <v>-0.01225339535687429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1150370378659826</v>
+        <v>0.1310894850392235</v>
       </c>
       <c r="C76">
-        <v>0.1026558686569117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.07015280205386404</v>
+      </c>
+      <c r="D76">
+        <v>0.0578393041742964</v>
+      </c>
+      <c r="E76">
+        <v>0.00717195237069936</v>
+      </c>
+      <c r="F76">
+        <v>0.06699241630939003</v>
+      </c>
+      <c r="G76">
+        <v>-0.01147943643909389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.09711156495156545</v>
+        <v>0.1052431006781061</v>
       </c>
       <c r="C77">
-        <v>0.07348801393006957</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.04003432140329321</v>
+      </c>
+      <c r="D77">
+        <v>0.03837191646362841</v>
+      </c>
+      <c r="E77">
+        <v>-0.03741190971989813</v>
+      </c>
+      <c r="F77">
+        <v>0.279298870699473</v>
+      </c>
+      <c r="G77">
+        <v>0.8841490919521174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08181194200476108</v>
+        <v>0.1013829099173211</v>
       </c>
       <c r="C78">
-        <v>0.04986906697371818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03413306599767457</v>
+      </c>
+      <c r="D78">
+        <v>0.07479181312550251</v>
+      </c>
+      <c r="E78">
+        <v>0.05041536135680279</v>
+      </c>
+      <c r="F78">
+        <v>-0.001737024576692639</v>
+      </c>
+      <c r="G78">
+        <v>0.02117905520508943</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1330476252668162</v>
+        <v>0.1505574143389826</v>
       </c>
       <c r="C79">
-        <v>0.1066274346085513</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06678431814574651</v>
+      </c>
+      <c r="D79">
+        <v>0.02971550513516423</v>
+      </c>
+      <c r="E79">
+        <v>-0.02642676403689207</v>
+      </c>
+      <c r="F79">
+        <v>0.04004625435566885</v>
+      </c>
+      <c r="G79">
+        <v>-0.01461725451052255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04257504302980099</v>
+        <v>0.04117699846187139</v>
       </c>
       <c r="C80">
-        <v>0.02015965328311355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007505250889315367</v>
+      </c>
+      <c r="D80">
+        <v>0.02782690733805237</v>
+      </c>
+      <c r="E80">
+        <v>0.001881457194470096</v>
+      </c>
+      <c r="F80">
+        <v>-0.0228176581176539</v>
+      </c>
+      <c r="G80">
+        <v>-0.04505972815232428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1078910369806284</v>
+        <v>0.1210536588263089</v>
       </c>
       <c r="C81">
-        <v>0.08732119111237466</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05545928369643804</v>
+      </c>
+      <c r="D81">
+        <v>0.03634021513416805</v>
+      </c>
+      <c r="E81">
+        <v>-0.007999251052082403</v>
+      </c>
+      <c r="F81">
+        <v>0.03684250541814279</v>
+      </c>
+      <c r="G81">
+        <v>-0.05477187973925455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1126580475108751</v>
+        <v>0.1251318242673093</v>
       </c>
       <c r="C82">
-        <v>0.09696079977463126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06180079270975</v>
+      </c>
+      <c r="D82">
+        <v>0.03664818925604366</v>
+      </c>
+      <c r="E82">
+        <v>-0.02910134073359415</v>
+      </c>
+      <c r="F82">
+        <v>0.0529675060542328</v>
+      </c>
+      <c r="G82">
+        <v>-0.06041264577613308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07182215642668389</v>
+        <v>0.07221370326718601</v>
       </c>
       <c r="C83">
-        <v>0.01995122234444871</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002670282699559872</v>
+      </c>
+      <c r="D83">
+        <v>0.04216028533994619</v>
+      </c>
+      <c r="E83">
+        <v>0.005691864452891534</v>
+      </c>
+      <c r="F83">
+        <v>0.00860899032172569</v>
+      </c>
+      <c r="G83">
+        <v>-0.06043439067156198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.0240922596094165</v>
+        <v>0.03204543471568411</v>
       </c>
       <c r="C84">
-        <v>0.02250630586811261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0205604988019067</v>
+      </c>
+      <c r="D84">
+        <v>0.01634812721782895</v>
+      </c>
+      <c r="E84">
+        <v>0.01930977864164024</v>
+      </c>
+      <c r="F84">
+        <v>-0.03803717722188923</v>
+      </c>
+      <c r="G84">
+        <v>-0.04059388082301865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1168951652484688</v>
+        <v>0.120527479702793</v>
       </c>
       <c r="C85">
-        <v>0.08773725361814529</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04918853109816793</v>
+      </c>
+      <c r="D85">
+        <v>0.03344387960282579</v>
+      </c>
+      <c r="E85">
+        <v>0.0090513926321137</v>
+      </c>
+      <c r="F85">
+        <v>0.08651167322687538</v>
+      </c>
+      <c r="G85">
+        <v>-0.005900409906045605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04281692522683343</v>
+        <v>0.04589536587521107</v>
       </c>
       <c r="C86">
-        <v>0.02649897546428138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01169623776914443</v>
+      </c>
+      <c r="D86">
+        <v>0.01453940231916069</v>
+      </c>
+      <c r="E86">
+        <v>0.04824649898731345</v>
+      </c>
+      <c r="F86">
+        <v>0.01138467208695171</v>
+      </c>
+      <c r="G86">
+        <v>-0.006588777768511215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1132018985841921</v>
+        <v>0.1197456802703383</v>
       </c>
       <c r="C87">
-        <v>0.08607279395921198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.05010048734698645</v>
+      </c>
+      <c r="D87">
+        <v>0.07194526006236571</v>
+      </c>
+      <c r="E87">
+        <v>0.015958737438637</v>
+      </c>
+      <c r="F87">
+        <v>0.03075368281696417</v>
+      </c>
+      <c r="G87">
+        <v>0.09383113252203462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05198580911477135</v>
+        <v>0.0570142080360665</v>
       </c>
       <c r="C88">
-        <v>0.04391204404582554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02687203098657223</v>
+      </c>
+      <c r="D88">
+        <v>0.02688089684149127</v>
+      </c>
+      <c r="E88">
+        <v>0.02036892641215454</v>
+      </c>
+      <c r="F88">
+        <v>0.01053038695033458</v>
+      </c>
+      <c r="G88">
+        <v>0.00980186314478612</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07019738594554456</v>
+        <v>0.1041712733271371</v>
       </c>
       <c r="C89">
-        <v>0.08037298574237345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07905806402734354</v>
+      </c>
+      <c r="D89">
+        <v>-0.3290120187350725</v>
+      </c>
+      <c r="E89">
+        <v>0.08223315892109256</v>
+      </c>
+      <c r="F89">
+        <v>0.05780977395788317</v>
+      </c>
+      <c r="G89">
+        <v>-0.01416093429071581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06319606028015176</v>
+        <v>0.08674726629186807</v>
       </c>
       <c r="C90">
-        <v>0.06937598573335264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06668623174914555</v>
+      </c>
+      <c r="D90">
+        <v>-0.3100350570731074</v>
+      </c>
+      <c r="E90">
+        <v>0.0681954286123574</v>
+      </c>
+      <c r="F90">
+        <v>-0.01691956071746437</v>
+      </c>
+      <c r="G90">
+        <v>-0.01220310938463082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07712129954169628</v>
+        <v>0.08717709351854624</v>
       </c>
       <c r="C91">
-        <v>0.06683555331905994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04338217229979571</v>
+      </c>
+      <c r="D91">
+        <v>0.02995409595968389</v>
+      </c>
+      <c r="E91">
+        <v>0.008713288708548763</v>
+      </c>
+      <c r="F91">
+        <v>0.01041531702403518</v>
+      </c>
+      <c r="G91">
+        <v>-0.03253624575429562</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.07887927781964893</v>
+        <v>0.1025453888617572</v>
       </c>
       <c r="C92">
-        <v>0.07123474937837707</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06651158098390796</v>
+      </c>
+      <c r="D92">
+        <v>-0.3275457138282949</v>
+      </c>
+      <c r="E92">
+        <v>0.04384447999121166</v>
+      </c>
+      <c r="F92">
+        <v>0.02292919747134049</v>
+      </c>
+      <c r="G92">
+        <v>0.0128674690714516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05633680867349929</v>
+        <v>0.08360169828877807</v>
       </c>
       <c r="C93">
-        <v>0.06651211345793342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06676408334895802</v>
+      </c>
+      <c r="D93">
+        <v>-0.300250511737165</v>
+      </c>
+      <c r="E93">
+        <v>0.03909770381254648</v>
+      </c>
+      <c r="F93">
+        <v>0.03645207534743675</v>
+      </c>
+      <c r="G93">
+        <v>0.01305448886006542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1220570830206849</v>
+        <v>0.1264084741951957</v>
       </c>
       <c r="C94">
-        <v>0.07967971381615813</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03829638460615296</v>
+      </c>
+      <c r="D94">
+        <v>0.05849314831658613</v>
+      </c>
+      <c r="E94">
+        <v>-0.03129627619649336</v>
+      </c>
+      <c r="F94">
+        <v>0.04564805715263935</v>
+      </c>
+      <c r="G94">
+        <v>-0.03188566761585752</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1131276517933593</v>
+        <v>0.1205910705221484</v>
       </c>
       <c r="C95">
-        <v>0.06011707586750963</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02883692171429821</v>
+      </c>
+      <c r="D95">
+        <v>0.053445594983052</v>
+      </c>
+      <c r="E95">
+        <v>-0.01266891963996392</v>
+      </c>
+      <c r="F95">
+        <v>0.04157638750318043</v>
+      </c>
+      <c r="G95">
+        <v>0.0003367951256893605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1889126747456351</v>
+        <v>0.2214283175327917</v>
       </c>
       <c r="C97">
-        <v>0.08254904269590217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04491941865412766</v>
+      </c>
+      <c r="D97">
+        <v>-0.009791026044485701</v>
+      </c>
+      <c r="E97">
+        <v>-0.171819447420315</v>
+      </c>
+      <c r="F97">
+        <v>-0.8781879050401983</v>
+      </c>
+      <c r="G97">
+        <v>0.2261892576279288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2306307869718323</v>
+        <v>0.2577480218160014</v>
       </c>
       <c r="C98">
-        <v>0.1280509735245596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06679287774857633</v>
+      </c>
+      <c r="D98">
+        <v>0.03828891784465729</v>
+      </c>
+      <c r="E98">
+        <v>-0.1406518076803223</v>
+      </c>
+      <c r="F98">
+        <v>0.008849465750312216</v>
+      </c>
+      <c r="G98">
+        <v>-0.2558307755103855</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5865662059305102</v>
+        <v>0.3826447540680682</v>
       </c>
       <c r="C99">
-        <v>-0.8002707756632174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9134578765590654</v>
+      </c>
+      <c r="D99">
+        <v>-0.07191346532179586</v>
+      </c>
+      <c r="E99">
+        <v>0.04106525449187608</v>
+      </c>
+      <c r="F99">
+        <v>0.04075481645972223</v>
+      </c>
+      <c r="G99">
+        <v>-1.181798087114548e-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03461227872518893</v>
+        <v>0.04192915469802413</v>
       </c>
       <c r="C101">
-        <v>0.03303966409806685</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02568002216259667</v>
+      </c>
+      <c r="D101">
+        <v>0.01126472479156003</v>
+      </c>
+      <c r="E101">
+        <v>0.03667714057277717</v>
+      </c>
+      <c r="F101">
+        <v>0.01239179853970424</v>
+      </c>
+      <c r="G101">
+        <v>-0.004828132201971122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
